--- a/database/FileExcel/Users.xlsx
+++ b/database/FileExcel/Users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8FA8005-A234-4133-877C-3FEAFB1A9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D49C44-0CCF-4AA7-9060-B3204BD46FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -93,6 +92,9 @@
   </si>
   <si>
     <t>dewa</t>
+  </si>
+  <si>
+    <t>is_admin</t>
   </si>
 </sst>
 </file>
@@ -461,15 +463,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,22 +494,25 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,10 +534,13 @@
       <c r="G2">
         <v>12345678</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="H2">
+        <v>1</v>
+      </c>
       <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -553,6 +561,9 @@
       </c>
       <c r="G3">
         <v>12345678</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/FileExcel/Users.xlsx
+++ b/database/FileExcel/Users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D49C44-0CCF-4AA7-9060-B3204BD46FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A750B-E818-4CCF-BF75-4BA29844FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/database/FileExcel/Users.xlsx
+++ b/database/FileExcel/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yovie\persediaanapp-magang\database\FileExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7A750B-E818-4CCF-BF75-4BA29844FB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AF4877-0A61-430C-8E1A-C8A386F6CC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
+    <workbookView xWindow="770" yWindow="750" windowWidth="11440" windowHeight="7810" xr2:uid="{B1A6D6DA-43F5-4D03-876B-1BE0E6BF7134}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -49,9 +49,6 @@
     <t>no_hp</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -70,31 +67,34 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>Yovieaji</t>
-  </si>
-  <si>
-    <t>sukun</t>
-  </si>
-  <si>
     <t>yovieaji@gmail.com</t>
   </si>
   <si>
-    <t>yovieaji</t>
-  </si>
-  <si>
     <t>Dewa</t>
   </si>
   <si>
-    <t>lesanpuro</t>
-  </si>
-  <si>
     <t>dewa@gmail.com</t>
   </si>
   <si>
-    <t>dewa</t>
-  </si>
-  <si>
     <t>is_admin</t>
+  </si>
+  <si>
+    <t>Jl.Prenjak Timur No 6, Sukun - Malang</t>
+  </si>
+  <si>
+    <t>Jl.Madyopuro 6, Sawojajar</t>
+  </si>
+  <si>
+    <t>08871212</t>
+  </si>
+  <si>
+    <t>Yovie</t>
+  </si>
+  <si>
+    <t>Haykal</t>
+  </si>
+  <si>
+    <t>haykal@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -144,10 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -463,15 +464,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC210C0-9D73-46BA-9C56-AD0FD5D86CE8}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,10 +492,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -508,68 +509,83 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>887411</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>12345678</v>
       </c>
       <c r="G2">
-        <v>12345678</v>
-      </c>
-      <c r="H2">
         <v>1</v>
       </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>8888777</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>12345678</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="G3">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
         <v>12345678</v>
       </c>
-      <c r="H3">
-        <v>0</v>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{0C9FBF1E-B567-42D2-B88A-A177E39BBD65}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{8EDE85C0-D29C-44B9-B3B8-35BB445D8F03}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{EFF4702B-5FD0-4BD2-A715-A633BDD68A27}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
